--- a/biology/Zoologie/Celestus_badius/Celestus_badius.xlsx
+++ b/biology/Zoologie/Celestus_badius/Celestus_badius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Celestus badius est une espèce de sauriens de la famille des Diploglossidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celestus badius est une espèce de sauriens de la famille des Diploglossidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île de la Navasse aux Antilles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île de la Navasse aux Antilles.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope, 1868 : An examination of the Reptilia and Batrachia obtained by the Orton Expedition to Equador and the Upper Amazon, with notes on other species. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 20, p. 96-140 (texte intégral).</t>
         </is>
